--- a/Project1/Docs/User stories.xlsx
+++ b/Project1/Docs/User stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Revature\Repository\Javawork\Project1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Revature\Repository\Javawork\Project1\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63A5D397-A077-4482-927D-2F45B55F71C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6E382-2FC9-4550-A872-4B99448A6628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -711,7 +711,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -795,12 +795,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF0070C0"/>
@@ -812,6 +806,27 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1053,7 +1068,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1103,9 +1118,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1116,54 +1128,34 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1200,17 +1192,90 @@
     <xf numFmtId="0" fontId="11" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1429,1302 +1494,1315 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D62A0C-2938-4C2B-BF7C-4A456DA693CC}">
   <dimension ref="A1:F106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" style="72" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" customWidth="1"/>
     <col min="5" max="5" width="74.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="53"/>
     </row>
     <row r="3" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>115</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="62"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="62"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="60">
+      <c r="B5" s="51">
         <v>1</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="62"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
     </row>
     <row r="6" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="39" t="s">
+      <c r="F6" s="67" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="64"/>
-      <c r="B7" s="40">
+    <row r="7" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55"/>
+      <c r="B7" s="68">
         <v>1</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="40" t="s">
+      <c r="D7" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="68">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="64"/>
-      <c r="B8" s="40">
+    <row r="8" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="68">
         <v>2</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D8" s="40" t="s">
+      <c r="D8" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="E8" s="41" t="s">
+      <c r="E8" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="69">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="40">
+    <row r="9" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="55"/>
+      <c r="B9" s="68">
         <v>3</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="75" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="69">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64"/>
-      <c r="B10" s="40">
+    <row r="10" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="68">
         <v>4</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="40">
+      <c r="A11" s="55"/>
+      <c r="B11" s="68">
         <v>5</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="69">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="64"/>
-      <c r="B12" s="40">
+    <row r="12" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="68">
         <v>6</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="69">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="31.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="40">
+      <c r="A13" s="55"/>
+      <c r="B13" s="68">
         <v>7</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="D13" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="F13" s="42">
+      <c r="F13" s="69">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="64"/>
-      <c r="B14" s="40">
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="55"/>
+      <c r="B14" s="68">
         <v>7.1</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="40" t="s">
         <v>138</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="40">
+    <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="68">
         <v>7.2</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E15" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="64"/>
-      <c r="B16" s="40">
+    <row r="16" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55"/>
+      <c r="B16" s="68">
         <v>7.3</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F16" s="42">
+      <c r="F16" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="40">
+    <row r="17" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="68">
         <v>7.4</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="40" t="s">
         <v>143</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="40">
+    <row r="18" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="55"/>
+      <c r="B18" s="68">
         <v>7.5</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D18" s="41" t="s">
+      <c r="D18" s="40" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="40" t="s">
+      <c r="E18" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="69">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="40">
+    <row r="19" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="56"/>
+      <c r="B19" s="68">
         <v>7.6</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="41" t="s">
+      <c r="D19" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="42">
+      <c r="F19" s="69">
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="C20" s="43" t="s">
+      <c r="C20" s="76" t="s">
         <v>148</v>
       </c>
-      <c r="D20" s="43" t="s">
+      <c r="D20" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="E20" s="57"/>
-      <c r="F20" s="58"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="70"/>
     </row>
     <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="43" t="s">
+      <c r="A21" s="55"/>
+      <c r="B21" s="73" t="s">
         <v>120</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D21" s="43" t="s">
+      <c r="D21" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="59"/>
-    </row>
-    <row r="22" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="44" t="s">
+      <c r="E21" s="37"/>
+      <c r="F21" s="71"/>
+    </row>
+    <row r="22" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55"/>
+      <c r="B22" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C22" s="44" t="s">
+      <c r="C22" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="44" t="s">
+      <c r="D22" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="F22" s="59"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="71"/>
     </row>
     <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="64"/>
-      <c r="B23" s="45" t="s">
+      <c r="A23" s="55"/>
+      <c r="B23" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="71"/>
     </row>
     <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="64"/>
-      <c r="B24" s="45" t="s">
+      <c r="A24" s="55"/>
+      <c r="B24" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="F24" s="59"/>
-    </row>
-    <row r="25" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
-      <c r="B25" s="45" t="s">
+      <c r="D24" s="43"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="71"/>
+    </row>
+    <row r="25" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="55"/>
+      <c r="B25" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="F25" s="59"/>
-    </row>
-    <row r="26" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="64"/>
-      <c r="B26" s="45" t="s">
+      <c r="D25" s="43"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="71"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="55"/>
+      <c r="B26" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="F26" s="59"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="71"/>
     </row>
     <row r="27" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="64"/>
-      <c r="B27" s="45" t="s">
+      <c r="A27" s="55"/>
+      <c r="B27" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="47" t="s">
+      <c r="C27" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="F27" s="59"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="71"/>
     </row>
     <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="64"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="55"/>
+      <c r="B28" s="86" t="s">
         <v>156</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="F28" s="59"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="71"/>
     </row>
     <row r="29" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="64"/>
-      <c r="B29" s="45" t="s">
+      <c r="A29" s="55"/>
+      <c r="B29" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="F29" s="59"/>
-    </row>
-    <row r="30" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="64"/>
-      <c r="B30" s="45" t="s">
+      <c r="D29" s="43"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="71"/>
+    </row>
+    <row r="30" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="55"/>
+      <c r="B30" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="F30" s="59"/>
-    </row>
-    <row r="31" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="64"/>
-      <c r="B31" s="45" t="s">
+      <c r="D30" s="43"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="71"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="55"/>
+      <c r="B31" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="F31" s="59"/>
-    </row>
-    <row r="32" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="64"/>
-      <c r="B32" s="45" t="s">
+      <c r="D31" s="43"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="71"/>
+    </row>
+    <row r="32" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="F32" s="59"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="71"/>
     </row>
     <row r="33" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="45" t="s">
+      <c r="A33" s="55"/>
+      <c r="B33" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="F33" s="59"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="71"/>
     </row>
     <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="48" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="48" t="s">
+      <c r="C34" s="80" t="s">
         <v>162</v>
       </c>
-      <c r="D34" s="48" t="s">
+      <c r="D34" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F34" s="59"/>
-    </row>
-    <row r="35" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="64"/>
-      <c r="B35" s="40" t="s">
+      <c r="F34" s="71"/>
+    </row>
+    <row r="35" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="55"/>
+      <c r="B35" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="75" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="41" t="s">
+      <c r="D35" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="59"/>
-    </row>
-    <row r="36" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="64"/>
-      <c r="B36" s="49" t="s">
+      <c r="F35" s="71"/>
+    </row>
+    <row r="36" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55"/>
+      <c r="B36" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="81" t="s">
         <v>163</v>
       </c>
-      <c r="D36" s="50"/>
-      <c r="F36" s="59"/>
+      <c r="D36" s="45"/>
+      <c r="F36" s="71"/>
     </row>
     <row r="37" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="64"/>
-      <c r="B37" s="49" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="81" t="s">
         <v>164</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="F37" s="59"/>
+      <c r="D37" s="45"/>
+      <c r="F37" s="71"/>
     </row>
     <row r="38" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="64"/>
-      <c r="B38" s="49" t="s">
+      <c r="A38" s="55"/>
+      <c r="B38" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="41" t="s">
+      <c r="C38" s="81" t="s">
         <v>165</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="F38" s="59"/>
+      <c r="D38" s="45"/>
+      <c r="F38" s="71"/>
     </row>
     <row r="39" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="64"/>
-      <c r="B39" s="49" t="s">
+      <c r="A39" s="55"/>
+      <c r="B39" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="81" t="s">
         <v>166</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="F39" s="59"/>
-    </row>
-    <row r="40" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="64"/>
-      <c r="B40" s="49" t="s">
+      <c r="D39" s="45"/>
+      <c r="F39" s="71"/>
+    </row>
+    <row r="40" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="88" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="41" t="s">
+      <c r="C40" s="81" t="s">
         <v>168</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="F40" s="59"/>
-    </row>
-    <row r="41" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="64"/>
-      <c r="B41" s="49" t="s">
+      <c r="D40" s="45"/>
+      <c r="F40" s="71"/>
+    </row>
+    <row r="41" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="81" t="s">
         <v>169</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="F41" s="59"/>
+      <c r="D41" s="45"/>
+      <c r="F41" s="71"/>
     </row>
     <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="64"/>
-      <c r="B42" s="49" t="s">
+      <c r="A42" s="55"/>
+      <c r="B42" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="41" t="s">
+      <c r="C42" s="81" t="s">
         <v>170</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="F42" s="59"/>
+      <c r="D42" s="45"/>
+      <c r="F42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="64"/>
-      <c r="B43" s="43" t="s">
+      <c r="A43" s="55"/>
+      <c r="B43" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="43" t="s">
+      <c r="C43" s="76" t="s">
         <v>172</v>
       </c>
-      <c r="D43" s="43" t="s">
+      <c r="D43" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F43" s="59"/>
+      <c r="F43" s="71"/>
     </row>
     <row r="44" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="64"/>
-      <c r="B44" s="44" t="s">
+      <c r="A44" s="55"/>
+      <c r="B44" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C44" s="47" t="s">
+      <c r="C44" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="44" t="s">
+      <c r="D44" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="F44" s="59"/>
-    </row>
-    <row r="45" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="64"/>
-      <c r="B45" s="45" t="s">
+      <c r="F44" s="71"/>
+    </row>
+    <row r="45" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="55"/>
+      <c r="B45" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D45" s="46"/>
-      <c r="F45" s="59"/>
-    </row>
-    <row r="46" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="64"/>
-      <c r="B46" s="45" t="s">
+      <c r="D45" s="43"/>
+      <c r="F45" s="71"/>
+    </row>
+    <row r="46" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="55"/>
+      <c r="B46" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="F46" s="59"/>
+      <c r="D46" s="43"/>
+      <c r="F46" s="71"/>
     </row>
     <row r="47" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="64"/>
-      <c r="B47" s="45" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="47" t="s">
+      <c r="C47" s="79" t="s">
         <v>175</v>
       </c>
-      <c r="D47" s="46"/>
-      <c r="F47" s="59"/>
-    </row>
-    <row r="48" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="64"/>
-      <c r="B48" s="45" t="s">
+      <c r="D47" s="43"/>
+      <c r="F47" s="71"/>
+    </row>
+    <row r="48" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="55"/>
+      <c r="B48" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="46"/>
-      <c r="F48" s="59"/>
-    </row>
-    <row r="49" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="64"/>
-      <c r="B49" s="45" t="s">
+      <c r="D48" s="43"/>
+      <c r="F48" s="71"/>
+    </row>
+    <row r="49" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="55"/>
+      <c r="B49" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C49" s="47" t="s">
+      <c r="C49" s="79" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="46"/>
-      <c r="F49" s="59"/>
-    </row>
-    <row r="50" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="64"/>
-      <c r="B50" s="45" t="s">
+      <c r="D49" s="43"/>
+      <c r="F49" s="71"/>
+    </row>
+    <row r="50" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="55"/>
+      <c r="B50" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="F50" s="59"/>
-    </row>
-    <row r="51" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="64"/>
-      <c r="B51" s="45" t="s">
+      <c r="D50" s="43"/>
+      <c r="F50" s="71"/>
+    </row>
+    <row r="51" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="55"/>
+      <c r="B51" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C51" s="47" t="s">
+      <c r="C51" s="79" t="s">
         <v>163</v>
       </c>
-      <c r="D51" s="46"/>
-      <c r="F51" s="59"/>
+      <c r="D51" s="43"/>
+      <c r="F51" s="71"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="64"/>
-      <c r="B52" s="51" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="53" t="s">
+      <c r="C52" s="82" t="s">
         <v>180</v>
       </c>
-      <c r="D52" s="55"/>
-      <c r="F52" s="59"/>
+      <c r="D52" s="63"/>
+      <c r="F52" s="71"/>
     </row>
     <row r="53" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="64"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="56"/>
-      <c r="F53" s="59"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="83"/>
+      <c r="D53" s="64"/>
+      <c r="F53" s="71"/>
     </row>
     <row r="54" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="64"/>
-      <c r="B54" s="45" t="s">
+      <c r="A54" s="55"/>
+      <c r="B54" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C54" s="47" t="s">
+      <c r="C54" s="79" t="s">
         <v>181</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="F54" s="59"/>
-    </row>
-    <row r="55" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="64"/>
-      <c r="B55" s="45" t="s">
+      <c r="D54" s="43"/>
+      <c r="F54" s="71"/>
+    </row>
+    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="55"/>
+      <c r="B55" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="47" t="s">
+      <c r="C55" s="79" t="s">
         <v>176</v>
       </c>
-      <c r="D55" s="46"/>
-      <c r="F55" s="59"/>
-    </row>
-    <row r="56" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="64"/>
-      <c r="B56" s="45" t="s">
+      <c r="D55" s="43"/>
+      <c r="F55" s="71"/>
+    </row>
+    <row r="56" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="55"/>
+      <c r="B56" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="47" t="s">
+      <c r="C56" s="79" t="s">
         <v>182</v>
       </c>
-      <c r="D56" s="46"/>
-      <c r="F56" s="59"/>
+      <c r="D56" s="43"/>
+      <c r="F56" s="71"/>
     </row>
     <row r="57" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="64"/>
-      <c r="B57" s="48" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="87" t="s">
         <v>183</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="80" t="s">
         <v>184</v>
       </c>
-      <c r="D57" s="48" t="s">
+      <c r="D57" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F57" s="59"/>
-    </row>
-    <row r="58" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="64"/>
-      <c r="B58" s="40" t="s">
+      <c r="F57" s="71"/>
+    </row>
+    <row r="58" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="55"/>
+      <c r="B58" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="75" t="s">
         <v>124</v>
       </c>
-      <c r="D58" s="40" t="s">
+      <c r="D58" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="59"/>
+      <c r="F58" s="71"/>
     </row>
     <row r="59" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="64"/>
-      <c r="B59" s="49" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="84" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="F59" s="59"/>
+      <c r="D59" s="45"/>
+      <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="64"/>
-      <c r="B60" s="49" t="s">
+      <c r="A60" s="55"/>
+      <c r="B60" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C60" s="41" t="s">
+      <c r="C60" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="F60" s="59"/>
-    </row>
-    <row r="61" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="64"/>
-      <c r="B61" s="49" t="s">
+      <c r="D60" s="45"/>
+      <c r="F60" s="71"/>
+    </row>
+    <row r="61" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="55"/>
+      <c r="B61" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="41" t="s">
+      <c r="C61" s="81" t="s">
         <v>187</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="F61" s="59"/>
-    </row>
-    <row r="62" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="64"/>
-      <c r="B62" s="49" t="s">
+      <c r="D61" s="45"/>
+      <c r="F61" s="71"/>
+    </row>
+    <row r="62" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="55"/>
+      <c r="B62" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C62" s="41" t="s">
+      <c r="C62" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="D62" s="50"/>
-      <c r="F62" s="59"/>
-    </row>
-    <row r="63" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="64"/>
-      <c r="B63" s="49" t="s">
+      <c r="D62" s="45"/>
+      <c r="F62" s="71"/>
+    </row>
+    <row r="63" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="55"/>
+      <c r="B63" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C63" s="41" t="s">
+      <c r="C63" s="81" t="s">
         <v>189</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="F63" s="59"/>
+      <c r="D63" s="45"/>
+      <c r="F63" s="71"/>
     </row>
     <row r="64" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="64"/>
-      <c r="B64" s="49" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="88" t="s">
         <v>156</v>
       </c>
-      <c r="C64" s="49" t="s">
+      <c r="C64" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="F64" s="59"/>
+      <c r="D64" s="45"/>
+      <c r="F64" s="71"/>
     </row>
     <row r="65" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="64"/>
-      <c r="B65" s="49" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C65" s="41" t="s">
+      <c r="C65" s="81" t="s">
         <v>186</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="F65" s="59"/>
-    </row>
-    <row r="66" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="64"/>
-      <c r="B66" s="49" t="s">
+      <c r="D65" s="45"/>
+      <c r="F65" s="71"/>
+    </row>
+    <row r="66" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="55"/>
+      <c r="B66" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="41" t="s">
+      <c r="C66" s="81" t="s">
         <v>190</v>
       </c>
-      <c r="D66" s="50"/>
-      <c r="F66" s="59"/>
-    </row>
-    <row r="67" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="64"/>
-      <c r="B67" s="49" t="s">
+      <c r="D66" s="45"/>
+      <c r="F66" s="71"/>
+    </row>
+    <row r="67" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="55"/>
+      <c r="B67" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C67" s="41" t="s">
+      <c r="C67" s="81" t="s">
         <v>188</v>
       </c>
-      <c r="D67" s="50"/>
-      <c r="F67" s="59"/>
-    </row>
-    <row r="68" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="64"/>
-      <c r="B68" s="49" t="s">
+      <c r="D67" s="45"/>
+      <c r="F67" s="71"/>
+    </row>
+    <row r="68" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="55"/>
+      <c r="B68" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C68" s="41" t="s">
+      <c r="C68" s="81" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="F68" s="59"/>
+      <c r="D68" s="45"/>
+      <c r="F68" s="71"/>
     </row>
     <row r="69" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="64"/>
-      <c r="B69" s="49" t="s">
+      <c r="A69" s="55"/>
+      <c r="B69" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="41" t="s">
+      <c r="C69" s="81" t="s">
         <v>160</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="F69" s="59"/>
+      <c r="D69" s="45"/>
+      <c r="F69" s="71"/>
     </row>
     <row r="70" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="64"/>
-      <c r="B70" s="43" t="s">
+      <c r="A70" s="55"/>
+      <c r="B70" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="C70" s="43" t="s">
+      <c r="C70" s="76" t="s">
         <v>193</v>
       </c>
-      <c r="D70" s="43" t="s">
+      <c r="D70" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="F70" s="59"/>
-    </row>
-    <row r="71" spans="1:6" ht="48" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="64"/>
-      <c r="B71" s="44" t="s">
+      <c r="F70" s="71"/>
+    </row>
+    <row r="71" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="55"/>
+      <c r="B71" s="91" t="s">
         <v>130</v>
       </c>
-      <c r="C71" s="47" t="s">
+      <c r="C71" s="79" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="44" t="s">
+      <c r="D71" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="F71" s="59"/>
-    </row>
-    <row r="72" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="64"/>
-      <c r="B72" s="45" t="s">
+      <c r="F71" s="71"/>
+    </row>
+    <row r="72" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="55"/>
+      <c r="B72" s="86" t="s">
         <v>150</v>
       </c>
-      <c r="C72" s="45" t="s">
+      <c r="C72" s="78" t="s">
         <v>174</v>
       </c>
-      <c r="D72" s="46"/>
-      <c r="F72" s="59"/>
-    </row>
-    <row r="73" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="64"/>
-      <c r="B73" s="45" t="s">
+      <c r="D72" s="43"/>
+      <c r="F72" s="71"/>
+    </row>
+    <row r="73" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="55"/>
+      <c r="B73" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C73" s="47" t="s">
+      <c r="C73" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="46"/>
-      <c r="F73" s="59"/>
+      <c r="D73" s="43"/>
+      <c r="F73" s="71"/>
     </row>
     <row r="74" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="64"/>
-      <c r="B74" s="45" t="s">
+      <c r="A74" s="55"/>
+      <c r="B74" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="79" t="s">
         <v>195</v>
       </c>
-      <c r="D74" s="46"/>
-      <c r="F74" s="59"/>
-    </row>
-    <row r="75" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="64"/>
-      <c r="B75" s="45" t="s">
+      <c r="D74" s="43"/>
+      <c r="F74" s="71"/>
+    </row>
+    <row r="75" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="55"/>
+      <c r="B75" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="47" t="s">
+      <c r="C75" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="D75" s="46"/>
-      <c r="F75" s="59"/>
+      <c r="D75" s="43"/>
+      <c r="F75" s="71"/>
     </row>
     <row r="76" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="64"/>
-      <c r="B76" s="45" t="s">
+      <c r="A76" s="55"/>
+      <c r="B76" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C76" s="47" t="s">
+      <c r="C76" s="79" t="s">
         <v>197</v>
       </c>
-      <c r="D76" s="46"/>
-      <c r="F76" s="59"/>
-    </row>
-    <row r="77" spans="1:6" ht="57" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="64"/>
-      <c r="B77" s="45" t="s">
+      <c r="D76" s="43"/>
+      <c r="F76" s="71"/>
+    </row>
+    <row r="77" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="55"/>
+      <c r="B77" s="86" t="s">
         <v>178</v>
       </c>
-      <c r="C77" s="45" t="s">
+      <c r="C77" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="D77" s="46"/>
-      <c r="F77" s="59"/>
-    </row>
-    <row r="78" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="64"/>
-      <c r="B78" s="45" t="s">
+      <c r="D77" s="43"/>
+      <c r="F77" s="71"/>
+    </row>
+    <row r="78" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="55"/>
+      <c r="B78" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="C78" s="47" t="s">
+      <c r="C78" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="46"/>
-      <c r="F78" s="59"/>
+      <c r="D78" s="43"/>
+      <c r="F78" s="71"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="64"/>
-      <c r="B79" s="51" t="s">
+      <c r="A79" s="55"/>
+      <c r="B79" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="C79" s="53" t="s">
+      <c r="C79" s="82" t="s">
         <v>198</v>
       </c>
-      <c r="D79" s="55"/>
-      <c r="F79" s="59"/>
+      <c r="D79" s="63"/>
+      <c r="F79" s="71"/>
     </row>
     <row r="80" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="64"/>
-      <c r="B80" s="52"/>
-      <c r="C80" s="54"/>
-      <c r="D80" s="56"/>
-      <c r="F80" s="59"/>
+      <c r="A80" s="55"/>
+      <c r="B80" s="90"/>
+      <c r="C80" s="83"/>
+      <c r="D80" s="64"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="64"/>
-      <c r="B81" s="45" t="s">
+      <c r="A81" s="55"/>
+      <c r="B81" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="47" t="s">
+      <c r="C81" s="79" t="s">
         <v>199</v>
       </c>
-      <c r="D81" s="46"/>
-      <c r="F81" s="59"/>
-    </row>
-    <row r="82" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="64"/>
-      <c r="B82" s="45" t="s">
+      <c r="D81" s="43"/>
+      <c r="F81" s="71"/>
+    </row>
+    <row r="82" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="55"/>
+      <c r="B82" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="C82" s="47" t="s">
+      <c r="C82" s="79" t="s">
         <v>196</v>
       </c>
-      <c r="D82" s="46"/>
-      <c r="F82" s="59"/>
-    </row>
-    <row r="83" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="64"/>
-      <c r="B83" s="45" t="s">
+      <c r="D82" s="43"/>
+      <c r="F82" s="71"/>
+    </row>
+    <row r="83" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="55"/>
+      <c r="B83" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="C83" s="47" t="s">
+      <c r="C83" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="D83" s="46"/>
-      <c r="F83" s="59"/>
+      <c r="D83" s="43"/>
+      <c r="F83" s="71"/>
     </row>
     <row r="84" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="64"/>
-      <c r="B84" s="48" t="s">
+      <c r="A84" s="55"/>
+      <c r="B84" s="87" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="48" t="s">
+      <c r="C84" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="D84" s="48" t="s">
+      <c r="D84" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="F84" s="59"/>
+      <c r="F84" s="71"/>
     </row>
     <row r="85" spans="1:6" ht="32.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="64"/>
-      <c r="B85" s="40" t="s">
+      <c r="A85" s="55"/>
+      <c r="B85" s="68" t="s">
         <v>130</v>
       </c>
-      <c r="C85" s="41" t="s">
+      <c r="C85" s="81" t="s">
         <v>134</v>
       </c>
-      <c r="D85" s="40" t="s">
+      <c r="D85" s="39" t="s">
         <v>135</v>
       </c>
-      <c r="F85" s="59"/>
-    </row>
-    <row r="86" spans="1:6" ht="38.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="64"/>
-      <c r="B86" s="49" t="s">
+      <c r="F85" s="71"/>
+    </row>
+    <row r="86" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="55"/>
+      <c r="B86" s="88" t="s">
         <v>150</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="84" t="s">
         <v>203</v>
       </c>
-      <c r="D86" s="50"/>
-      <c r="F86" s="59"/>
-    </row>
-    <row r="87" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="64"/>
-      <c r="B87" s="49" t="s">
+      <c r="D86" s="45"/>
+      <c r="F86" s="71"/>
+    </row>
+    <row r="87" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="55"/>
+      <c r="B87" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C87" s="41" t="s">
+      <c r="C87" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="F87" s="59"/>
+      <c r="D87" s="45"/>
+      <c r="F87" s="71"/>
     </row>
     <row r="88" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="49" t="s">
+      <c r="A88" s="55"/>
+      <c r="B88" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C88" s="41" t="s">
+      <c r="C88" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="F88" s="59"/>
-    </row>
-    <row r="89" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="49" t="s">
+      <c r="D88" s="45"/>
+      <c r="F88" s="71"/>
+    </row>
+    <row r="89" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="55"/>
+      <c r="B89" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="41" t="s">
+      <c r="C89" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="F89" s="59"/>
-    </row>
-    <row r="90" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="49" t="s">
+      <c r="D89" s="45"/>
+      <c r="F89" s="71"/>
+    </row>
+    <row r="90" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="55"/>
+      <c r="B90" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="41" t="s">
+      <c r="C90" s="81" t="s">
         <v>206</v>
       </c>
-      <c r="D90" s="50"/>
-      <c r="F90" s="59"/>
+      <c r="D90" s="45"/>
+      <c r="F90" s="71"/>
     </row>
     <row r="91" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
-      <c r="B91" s="49" t="s">
+      <c r="A91" s="55"/>
+      <c r="B91" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C91" s="41" t="s">
+      <c r="C91" s="81" t="s">
         <v>207</v>
       </c>
-      <c r="D91" s="50"/>
-      <c r="F91" s="59"/>
-    </row>
-    <row r="92" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
-      <c r="B92" s="49" t="s">
+      <c r="D91" s="45"/>
+      <c r="F91" s="71"/>
+    </row>
+    <row r="92" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="55"/>
+      <c r="B92" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="F92" s="59"/>
+      <c r="D92" s="45"/>
+      <c r="F92" s="71"/>
     </row>
     <row r="93" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
-      <c r="B93" s="49" t="s">
+      <c r="A93" s="55"/>
+      <c r="B93" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="41" t="s">
+      <c r="C93" s="81" t="s">
         <v>209</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="F93" s="59"/>
+      <c r="D93" s="45"/>
+      <c r="F93" s="71"/>
     </row>
     <row r="94" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
-      <c r="B94" s="49" t="s">
+      <c r="A94" s="55"/>
+      <c r="B94" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C94" s="41" t="s">
+      <c r="C94" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="F94" s="59"/>
+      <c r="D94" s="45"/>
+      <c r="F94" s="71"/>
     </row>
     <row r="95" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="49" t="s">
+      <c r="A95" s="55"/>
+      <c r="B95" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="C95" s="49" t="s">
+      <c r="C95" s="84" t="s">
         <v>211</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="F95" s="59"/>
-    </row>
-    <row r="96" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="49" t="s">
+      <c r="D95" s="45"/>
+      <c r="F95" s="71"/>
+    </row>
+    <row r="96" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="55"/>
+      <c r="B96" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="F96" s="59"/>
+      <c r="D96" s="45"/>
+      <c r="F96" s="71"/>
     </row>
     <row r="97" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="49" t="s">
+      <c r="A97" s="55"/>
+      <c r="B97" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C97" s="41" t="s">
+      <c r="C97" s="81" t="s">
         <v>204</v>
       </c>
-      <c r="D97" s="50"/>
-      <c r="F97" s="59"/>
-    </row>
-    <row r="98" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="49" t="s">
+      <c r="D97" s="45"/>
+      <c r="F97" s="71"/>
+    </row>
+    <row r="98" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="55"/>
+      <c r="B98" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C98" s="41" t="s">
+      <c r="C98" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="F98" s="59"/>
-    </row>
-    <row r="99" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="49" t="s">
+      <c r="D98" s="45"/>
+      <c r="F98" s="71"/>
+    </row>
+    <row r="99" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="55"/>
+      <c r="B99" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="41" t="s">
+      <c r="C99" s="81" t="s">
         <v>213</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="F99" s="59"/>
+      <c r="D99" s="45"/>
+      <c r="F99" s="71"/>
     </row>
     <row r="100" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="64"/>
-      <c r="B100" s="49" t="s">
+      <c r="A100" s="55"/>
+      <c r="B100" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="41" t="s">
+      <c r="C100" s="81" t="s">
         <v>214</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="F100" s="59"/>
-    </row>
-    <row r="101" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="64"/>
-      <c r="B101" s="49" t="s">
+      <c r="D100" s="45"/>
+      <c r="F100" s="71"/>
+    </row>
+    <row r="101" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="55"/>
+      <c r="B101" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="C101" s="41" t="s">
+      <c r="C101" s="81" t="s">
         <v>208</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="F101" s="59"/>
+      <c r="D101" s="45"/>
+      <c r="F101" s="71"/>
     </row>
     <row r="102" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="64"/>
-      <c r="B102" s="49" t="s">
+      <c r="A102" s="55"/>
+      <c r="B102" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C102" s="41" t="s">
+      <c r="C102" s="81" t="s">
         <v>215</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="F102" s="59"/>
+      <c r="D102" s="45"/>
+      <c r="F102" s="71"/>
     </row>
     <row r="103" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="64"/>
-      <c r="B103" s="49" t="s">
+      <c r="A103" s="55"/>
+      <c r="B103" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="41" t="s">
+      <c r="C103" s="81" t="s">
         <v>210</v>
       </c>
-      <c r="D103" s="50"/>
-      <c r="F103" s="59"/>
+      <c r="D103" s="45"/>
+      <c r="F103" s="71"/>
     </row>
     <row r="104" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="64"/>
-      <c r="B104" s="66"/>
-      <c r="C104" s="67"/>
-      <c r="D104" s="67"/>
-      <c r="E104" s="67"/>
-      <c r="F104" s="68"/>
+      <c r="A104" s="55"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="58"/>
+      <c r="D104" s="58"/>
+      <c r="E104" s="58"/>
+      <c r="F104" s="59"/>
     </row>
     <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="65"/>
-      <c r="B105" s="69"/>
-      <c r="C105" s="70"/>
-      <c r="D105" s="70"/>
-      <c r="E105" s="70"/>
-      <c r="F105" s="71"/>
+      <c r="A105" s="56"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="61"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="61"/>
+      <c r="F105" s="62"/>
     </row>
     <row r="106" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="39" t="s">
+      <c r="A106" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="B106" s="72"/>
-      <c r="C106" s="73"/>
-      <c r="D106" s="73"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="74"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2785,7 +2863,7 @@
       <c r="E1" s="6"/>
       <c r="J1" s="7"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="8"/>
       <c r="C2" s="5" t="s">
@@ -2807,7 +2885,7 @@
       <c r="E3" s="6"/>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
@@ -2817,7 +2895,7 @@
       <c r="E4" s="6"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
@@ -2837,21 +2915,21 @@
       <c r="E6" s="6"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
         <v>11</v>
       </c>
@@ -2879,7 +2957,7 @@
       </c>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -2904,7 +2982,7 @@
       </c>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -2927,7 +3005,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2950,7 +3028,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -2973,7 +3051,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -2996,7 +3074,7 @@
       </c>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -3019,7 +3097,7 @@
       </c>
       <c r="J14" s="9"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="21">
         <v>2</v>
       </c>
@@ -3033,7 +3111,7 @@
       <c r="I15" s="24"/>
       <c r="J15" s="9"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>2</v>
       </c>
@@ -3061,7 +3139,7 @@
       </c>
       <c r="J16" s="9"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>2</v>
       </c>
@@ -3084,7 +3162,7 @@
       </c>
       <c r="J17" s="9"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>2</v>
       </c>
@@ -3107,7 +3185,7 @@
       </c>
       <c r="J18" s="9"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>2</v>
       </c>
@@ -3130,7 +3208,7 @@
       </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>2</v>
       </c>
@@ -3153,7 +3231,7 @@
       </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="21">
         <v>3</v>
       </c>
@@ -3172,7 +3250,7 @@
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="13">
         <v>3</v>
       </c>
@@ -3197,7 +3275,7 @@
       </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>3</v>
       </c>
@@ -3215,7 +3293,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="13">
         <v>3</v>
       </c>
@@ -3241,7 +3319,7 @@
       </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>3</v>
       </c>
@@ -3264,7 +3342,7 @@
       </c>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="13">
         <v>3</v>
       </c>
@@ -3287,7 +3365,7 @@
       </c>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>3</v>
       </c>
@@ -3310,7 +3388,7 @@
       </c>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>3</v>
       </c>
@@ -3333,7 +3411,7 @@
       </c>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="21">
         <v>4</v>
       </c>
@@ -3352,7 +3430,7 @@
       </c>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13">
         <v>4</v>
       </c>
@@ -3372,7 +3450,7 @@
       <c r="I30" s="29"/>
       <c r="J30" s="9"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13">
         <v>4</v>
       </c>
@@ -3398,7 +3476,7 @@
       </c>
       <c r="J31" s="9"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>4</v>
       </c>
@@ -3421,7 +3499,7 @@
       </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="13">
         <v>4</v>
       </c>
@@ -3444,7 +3522,7 @@
       </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>4</v>
       </c>
@@ -3467,7 +3545,7 @@
       </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>4</v>
       </c>
@@ -3485,7 +3563,7 @@
       <c r="I35" s="29"/>
       <c r="J35" s="6"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>4</v>
       </c>
@@ -3511,7 +3589,7 @@
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="21">
         <v>5</v>
       </c>
